--- a/docs/A製品開発/A製品 機能仕様書.xlsx
+++ b/docs/A製品開発/A製品 機能仕様書.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\LightningReviewDemo\docs\A製品開発\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\ReviewSample\docs\A製品開発\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="15600" tabRatio="877" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="15600" tabRatio="877" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -141,10 +141,10 @@
   </definedNames>
   <calcPr calcId="162913" calcOnSave="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="yasui - 個人用ビュー" guid="{3EF97D6C-5CE3-40A1-AE34-333C5813F93B}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1280" windowHeight="742" tabRatio="832" activeSheetId="17" showComments="commIndAndComment"/>
+    <customWorkbookView name="kuriyama - 個人用ビュー" guid="{D8827C90-67CE-482F-BDC6-70F9BED566B6}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1016" windowHeight="539" tabRatio="951" activeSheetId="1" showFormulaBar="0"/>
+    <customWorkbookView name="山下 - 個人用ビュー" guid="{B42E1987-6453-408F-8B3D-97D5374F1132}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1184" windowHeight="729" tabRatio="786" activeSheetId="2"/>
     <customWorkbookView name="haya_taku - 個人用ビュー" guid="{150DCB42-A351-4287-B51A-F97A9C29C547}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1144" windowHeight="835" tabRatio="832" activeSheetId="2" showComments="commIndAndComment"/>
-    <customWorkbookView name="山下 - 個人用ビュー" guid="{B42E1987-6453-408F-8B3D-97D5374F1132}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1184" windowHeight="729" tabRatio="786" activeSheetId="2"/>
-    <customWorkbookView name="kuriyama - 個人用ビュー" guid="{D8827C90-67CE-482F-BDC6-70F9BED566B6}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1016" windowHeight="539" tabRatio="951" activeSheetId="1" showFormulaBar="0"/>
-    <customWorkbookView name="yasui - 個人用ビュー" guid="{3EF97D6C-5CE3-40A1-AE34-333C5813F93B}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1280" windowHeight="742" tabRatio="832" activeSheetId="17" showComments="commIndAndComment"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -7941,7 +7941,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="327">
+  <cellXfs count="328">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8937,6 +8937,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="36">
@@ -14318,22 +14321,22 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{150DCB42-A351-4287-B51A-F97A9C29C547}" showPageBreaks="1" showGridLines="0" fitToPage="1" printArea="1">
-      <selection activeCell="D21" sqref="D21"/>
+    <customSheetView guid="{3EF97D6C-5CE3-40A1-AE34-333C5813F93B}" showPageBreaks="1" showGridLines="0" fitToPage="1" printArea="1">
       <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{D8827C90-67CE-482F-BDC6-70F9BED566B6}" showGridLines="0" fitToPage="1" topLeftCell="A4">
+      <selection activeCell="D22" sqref="D22"/>
+      <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
     <customSheetView guid="{B42E1987-6453-408F-8B3D-97D5374F1132}" showGridLines="0" fitToPage="1">
       <selection activeCell="D25" sqref="D25"/>
       <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-    </customSheetView>
-    <customSheetView guid="{D8827C90-67CE-482F-BDC6-70F9BED566B6}" showGridLines="0" fitToPage="1" topLeftCell="A4">
-      <selection activeCell="D22" sqref="D22"/>
-      <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{3EF97D6C-5CE3-40A1-AE34-333C5813F93B}" showPageBreaks="1" showGridLines="0" fitToPage="1" printArea="1">
+    <customSheetView guid="{150DCB42-A351-4287-B51A-F97A9C29C547}" showPageBreaks="1" showGridLines="0" fitToPage="1" printArea="1">
+      <selection activeCell="D21" sqref="D21"/>
       <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId4"/>
     </customSheetView>
@@ -14349,10 +14352,10 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="C2:G13"/>
+  <dimension ref="C2:G15"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -14462,31 +14465,34 @@
       <c r="F13" s="142"/>
       <c r="G13" s="143"/>
     </row>
+    <row r="15" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C15" s="327"/>
+    </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{3EF97D6C-5CE3-40A1-AE34-333C5813F93B}" scale="85" showPageBreaks="1" showGridLines="0" fitToPage="1">
+      <pane ySplit="4" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+      <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+      <pageSetup paperSize="9" scale="59" fitToHeight="10" orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{D8827C90-67CE-482F-BDC6-70F9BED566B6}" scale="85" showGridLines="0" fitToPage="1" showAutoFilter="1">
+      <selection activeCell="F2" sqref="F2"/>
+      <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+      <pageSetup paperSize="9" scale="91" orientation="portrait" r:id="rId2"/>
+      <autoFilter ref="C4:G10"/>
+    </customSheetView>
+    <customSheetView guid="{B42E1987-6453-408F-8B3D-97D5374F1132}" scale="85" showGridLines="0" fitToPage="1" showAutoFilter="1">
+      <selection activeCell="F11" sqref="F11"/>
+      <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+      <pageSetup paperSize="9" scale="91" orientation="portrait" r:id="rId3"/>
+      <autoFilter ref="C4:G10"/>
+    </customSheetView>
     <customSheetView guid="{150DCB42-A351-4287-B51A-F97A9C29C547}" scale="85" showGridLines="0" fitToPage="1">
       <pane ySplit="4" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F112" sqref="F112"/>
       <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-      <pageSetup paperSize="9" scale="61" orientation="portrait" r:id="rId1"/>
-    </customSheetView>
-    <customSheetView guid="{B42E1987-6453-408F-8B3D-97D5374F1132}" scale="85" showGridLines="0" fitToPage="1" showAutoFilter="1">
-      <selection activeCell="F11" sqref="F11"/>
-      <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-      <pageSetup paperSize="9" scale="91" orientation="portrait" r:id="rId2"/>
-      <autoFilter ref="C4:G10"/>
-    </customSheetView>
-    <customSheetView guid="{D8827C90-67CE-482F-BDC6-70F9BED566B6}" scale="85" showGridLines="0" fitToPage="1" showAutoFilter="1">
-      <selection activeCell="F2" sqref="F2"/>
-      <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-      <pageSetup paperSize="9" scale="91" orientation="portrait" r:id="rId3"/>
-      <autoFilter ref="C4:G10"/>
-    </customSheetView>
-    <customSheetView guid="{3EF97D6C-5CE3-40A1-AE34-333C5813F93B}" scale="85" showPageBreaks="1" showGridLines="0" fitToPage="1">
-      <pane ySplit="4" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
-      <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-      <pageSetup paperSize="9" scale="59" fitToHeight="10" orientation="portrait" r:id="rId4"/>
+      <pageSetup paperSize="9" scale="61" orientation="portrait" r:id="rId4"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="6"/>
@@ -14502,7 +14508,7 @@
   </sheetPr>
   <dimension ref="B2:F22"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -14675,20 +14681,20 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{150DCB42-A351-4287-B51A-F97A9C29C547}" scale="85" showGridLines="0" fitToPage="1">
-      <selection activeCell="D17" sqref="D17"/>
+    <customSheetView guid="{3EF97D6C-5CE3-40A1-AE34-333C5813F93B}" scale="85" showGridLines="0" fitToPage="1">
       <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="9" scale="70" orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{D8827C90-67CE-482F-BDC6-70F9BED566B6}" showGridLines="0">
+      <selection activeCell="D14" sqref="D14"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{B42E1987-6453-408F-8B3D-97D5374F1132}" showGridLines="0">
       <selection activeCell="D14" sqref="D14"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{D8827C90-67CE-482F-BDC6-70F9BED566B6}" showGridLines="0">
-      <selection activeCell="D14" sqref="D14"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{3EF97D6C-5CE3-40A1-AE34-333C5813F93B}" scale="85" showGridLines="0" fitToPage="1">
+    <customSheetView guid="{150DCB42-A351-4287-B51A-F97A9C29C547}" scale="85" showGridLines="0" fitToPage="1">
+      <selection activeCell="D17" sqref="D17"/>
       <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="9" scale="70" orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -14913,12 +14919,12 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{150DCB42-A351-4287-B51A-F97A9C29C547}" scale="85" showGridLines="0" topLeftCell="A22">
-      <selection activeCell="B28" sqref="B28"/>
+    <customSheetView guid="{3EF97D6C-5CE3-40A1-AE34-333C5813F93B}" scale="85" showGridLines="0">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{3EF97D6C-5CE3-40A1-AE34-333C5813F93B}" scale="85" showGridLines="0">
+    <customSheetView guid="{150DCB42-A351-4287-B51A-F97A9C29C547}" scale="85" showGridLines="0" topLeftCell="A22">
+      <selection activeCell="B28" sqref="B28"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -16982,11 +16988,11 @@
     <row r="151" spans="4:14" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{150DCB42-A351-4287-B51A-F97A9C29C547}" scale="70" showGridLines="0">
+    <customSheetView guid="{3EF97D6C-5CE3-40A1-AE34-333C5813F93B}" scale="70" showGridLines="0">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{3EF97D6C-5CE3-40A1-AE34-333C5813F93B}" scale="70" showGridLines="0">
+    <customSheetView guid="{150DCB42-A351-4287-B51A-F97A9C29C547}" scale="70" showGridLines="0">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -17005,7 +17011,7 @@
   <sheetPr codeName="Sheet13"/>
   <dimension ref="B1:J174"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -19942,13 +19948,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{150DCB42-A351-4287-B51A-F97A9C29C547}" scale="85" showGridLines="0">
+    <customSheetView guid="{3EF97D6C-5CE3-40A1-AE34-333C5813F93B}" scale="85" showGridLines="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{3EF97D6C-5CE3-40A1-AE34-333C5813F93B}" scale="85" showGridLines="0">
+    <customSheetView guid="{150DCB42-A351-4287-B51A-F97A9C29C547}" scale="85" showGridLines="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/A製品開発/A製品 機能仕様書.xlsx
+++ b/docs/A製品開発/A製品 機能仕様書.xlsx
@@ -141,10 +141,10 @@
   </definedNames>
   <calcPr calcId="162913" calcOnSave="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="haya_taku - 個人用ビュー" guid="{150DCB42-A351-4287-B51A-F97A9C29C547}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1144" windowHeight="835" tabRatio="832" activeSheetId="2" showComments="commIndAndComment"/>
+    <customWorkbookView name="山下 - 個人用ビュー" guid="{B42E1987-6453-408F-8B3D-97D5374F1132}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1184" windowHeight="729" tabRatio="786" activeSheetId="2"/>
+    <customWorkbookView name="kuriyama - 個人用ビュー" guid="{D8827C90-67CE-482F-BDC6-70F9BED566B6}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1016" windowHeight="539" tabRatio="951" activeSheetId="1" showFormulaBar="0"/>
     <customWorkbookView name="yasui - 個人用ビュー" guid="{3EF97D6C-5CE3-40A1-AE34-333C5813F93B}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1280" windowHeight="742" tabRatio="832" activeSheetId="17" showComments="commIndAndComment"/>
-    <customWorkbookView name="kuriyama - 個人用ビュー" guid="{D8827C90-67CE-482F-BDC6-70F9BED566B6}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1016" windowHeight="539" tabRatio="951" activeSheetId="1" showFormulaBar="0"/>
-    <customWorkbookView name="山下 - 個人用ビュー" guid="{B42E1987-6453-408F-8B3D-97D5374F1132}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1184" windowHeight="729" tabRatio="786" activeSheetId="2"/>
-    <customWorkbookView name="haya_taku - 個人用ビュー" guid="{150DCB42-A351-4287-B51A-F97A9C29C547}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1144" windowHeight="835" tabRatio="832" activeSheetId="2" showComments="commIndAndComment"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -8908,6 +8908,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="8" borderId="6" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -8937,9 +8940,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="36">
@@ -14321,22 +14321,22 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{3EF97D6C-5CE3-40A1-AE34-333C5813F93B}" showPageBreaks="1" showGridLines="0" fitToPage="1" printArea="1">
+    <customSheetView guid="{150DCB42-A351-4287-B51A-F97A9C29C547}" showPageBreaks="1" showGridLines="0" fitToPage="1" printArea="1">
+      <selection activeCell="D21" sqref="D21"/>
       <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{B42E1987-6453-408F-8B3D-97D5374F1132}" showGridLines="0" fitToPage="1">
+      <selection activeCell="D25" sqref="D25"/>
+      <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
     <customSheetView guid="{D8827C90-67CE-482F-BDC6-70F9BED566B6}" showGridLines="0" fitToPage="1" topLeftCell="A4">
       <selection activeCell="D22" sqref="D22"/>
       <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-    </customSheetView>
-    <customSheetView guid="{B42E1987-6453-408F-8B3D-97D5374F1132}" showGridLines="0" fitToPage="1">
-      <selection activeCell="D25" sqref="D25"/>
-      <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{150DCB42-A351-4287-B51A-F97A9C29C547}" showPageBreaks="1" showGridLines="0" fitToPage="1" printArea="1">
-      <selection activeCell="D21" sqref="D21"/>
+    <customSheetView guid="{3EF97D6C-5CE3-40A1-AE34-333C5813F93B}" showPageBreaks="1" showGridLines="0" fitToPage="1" printArea="1">
       <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId4"/>
     </customSheetView>
@@ -14355,7 +14355,7 @@
   <dimension ref="C2:G15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -14466,33 +14466,33 @@
       <c r="G13" s="143"/>
     </row>
     <row r="15" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C15" s="327"/>
+      <c r="C15" s="317"/>
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{150DCB42-A351-4287-B51A-F97A9C29C547}" scale="85" showGridLines="0" fitToPage="1">
+      <pane ySplit="4" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F112" sqref="F112"/>
+      <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+      <pageSetup paperSize="9" scale="61" orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{B42E1987-6453-408F-8B3D-97D5374F1132}" scale="85" showGridLines="0" fitToPage="1" showAutoFilter="1">
+      <selection activeCell="F11" sqref="F11"/>
+      <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+      <pageSetup paperSize="9" scale="91" orientation="portrait" r:id="rId2"/>
+      <autoFilter ref="C4:G10"/>
+    </customSheetView>
+    <customSheetView guid="{D8827C90-67CE-482F-BDC6-70F9BED566B6}" scale="85" showGridLines="0" fitToPage="1" showAutoFilter="1">
+      <selection activeCell="F2" sqref="F2"/>
+      <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+      <pageSetup paperSize="9" scale="91" orientation="portrait" r:id="rId3"/>
+      <autoFilter ref="C4:G10"/>
+    </customSheetView>
     <customSheetView guid="{3EF97D6C-5CE3-40A1-AE34-333C5813F93B}" scale="85" showPageBreaks="1" showGridLines="0" fitToPage="1">
       <pane ySplit="4" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
       <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-      <pageSetup paperSize="9" scale="59" fitToHeight="10" orientation="portrait" r:id="rId1"/>
-    </customSheetView>
-    <customSheetView guid="{D8827C90-67CE-482F-BDC6-70F9BED566B6}" scale="85" showGridLines="0" fitToPage="1" showAutoFilter="1">
-      <selection activeCell="F2" sqref="F2"/>
-      <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-      <pageSetup paperSize="9" scale="91" orientation="portrait" r:id="rId2"/>
-      <autoFilter ref="C4:G10"/>
-    </customSheetView>
-    <customSheetView guid="{B42E1987-6453-408F-8B3D-97D5374F1132}" scale="85" showGridLines="0" fitToPage="1" showAutoFilter="1">
-      <selection activeCell="F11" sqref="F11"/>
-      <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-      <pageSetup paperSize="9" scale="91" orientation="portrait" r:id="rId3"/>
-      <autoFilter ref="C4:G10"/>
-    </customSheetView>
-    <customSheetView guid="{150DCB42-A351-4287-B51A-F97A9C29C547}" scale="85" showGridLines="0" fitToPage="1">
-      <pane ySplit="4" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F112" sqref="F112"/>
-      <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-      <pageSetup paperSize="9" scale="61" orientation="portrait" r:id="rId4"/>
+      <pageSetup paperSize="9" scale="59" fitToHeight="10" orientation="portrait" r:id="rId4"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="6"/>
@@ -14681,20 +14681,20 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{3EF97D6C-5CE3-40A1-AE34-333C5813F93B}" scale="85" showGridLines="0" fitToPage="1">
+    <customSheetView guid="{150DCB42-A351-4287-B51A-F97A9C29C547}" scale="85" showGridLines="0" fitToPage="1">
+      <selection activeCell="D17" sqref="D17"/>
       <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="9" scale="70" orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{B42E1987-6453-408F-8B3D-97D5374F1132}" showGridLines="0">
+      <selection activeCell="D14" sqref="D14"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{D8827C90-67CE-482F-BDC6-70F9BED566B6}" showGridLines="0">
       <selection activeCell="D14" sqref="D14"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{B42E1987-6453-408F-8B3D-97D5374F1132}" showGridLines="0">
-      <selection activeCell="D14" sqref="D14"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{150DCB42-A351-4287-B51A-F97A9C29C547}" scale="85" showGridLines="0" fitToPage="1">
-      <selection activeCell="D17" sqref="D17"/>
+    <customSheetView guid="{3EF97D6C-5CE3-40A1-AE34-333C5813F93B}" scale="85" showGridLines="0" fitToPage="1">
       <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="9" scale="70" orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -14919,12 +14919,12 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{3EF97D6C-5CE3-40A1-AE34-333C5813F93B}" scale="85" showGridLines="0">
+    <customSheetView guid="{150DCB42-A351-4287-B51A-F97A9C29C547}" scale="85" showGridLines="0" topLeftCell="A22">
+      <selection activeCell="B28" sqref="B28"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{150DCB42-A351-4287-B51A-F97A9C29C547}" scale="85" showGridLines="0" topLeftCell="A22">
-      <selection activeCell="B28" sqref="B28"/>
+    <customSheetView guid="{3EF97D6C-5CE3-40A1-AE34-333C5813F93B}" scale="85" showGridLines="0">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -16988,11 +16988,11 @@
     <row r="151" spans="4:14" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{3EF97D6C-5CE3-40A1-AE34-333C5813F93B}" scale="70" showGridLines="0">
+    <customSheetView guid="{150DCB42-A351-4287-B51A-F97A9C29C547}" scale="70" showGridLines="0">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{150DCB42-A351-4287-B51A-F97A9C29C547}" scale="70" showGridLines="0">
+    <customSheetView guid="{3EF97D6C-5CE3-40A1-AE34-333C5813F93B}" scale="70" showGridLines="0">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -17085,7 +17085,7 @@
       <c r="J5" s="88"/>
     </row>
     <row r="6" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="317" t="s">
+      <c r="B6" s="318" t="s">
         <v>250</v>
       </c>
       <c r="C6" s="92"/>
@@ -17101,7 +17101,7 @@
       <c r="I6" s="88"/>
     </row>
     <row r="7" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="318"/>
+      <c r="B7" s="319"/>
       <c r="C7" s="96" t="s">
         <v>248</v>
       </c>
@@ -19948,13 +19948,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{3EF97D6C-5CE3-40A1-AE34-333C5813F93B}" scale="85" showGridLines="0">
+    <customSheetView guid="{150DCB42-A351-4287-B51A-F97A9C29C547}" scale="85" showGridLines="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{150DCB42-A351-4287-B51A-F97A9C29C547}" scale="85" showGridLines="0">
+    <customSheetView guid="{3EF97D6C-5CE3-40A1-AE34-333C5813F93B}" scale="85" showGridLines="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20289,10 +20289,10 @@
       <c r="M54" s="203"/>
     </row>
     <row r="55" spans="2:19" s="58" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D55" s="319" t="s">
+      <c r="D55" s="320" t="s">
         <v>370</v>
       </c>
-      <c r="E55" s="321"/>
+      <c r="E55" s="322"/>
       <c r="F55" s="198" t="s">
         <v>415</v>
       </c>
@@ -21134,21 +21134,21 @@
       <c r="G88" s="172" t="s">
         <v>443</v>
       </c>
-      <c r="H88" s="319" t="s">
+      <c r="H88" s="320" t="s">
         <v>441</v>
       </c>
-      <c r="I88" s="320"/>
-      <c r="J88" s="321"/>
+      <c r="I88" s="321"/>
+      <c r="J88" s="322"/>
       <c r="K88" s="245" t="s">
         <v>442</v>
       </c>
       <c r="L88" s="242" t="s">
         <v>444</v>
       </c>
-      <c r="M88" s="322" t="s">
+      <c r="M88" s="323" t="s">
         <v>353</v>
       </c>
-      <c r="N88" s="323"/>
+      <c r="N88" s="324"/>
     </row>
     <row r="89" spans="2:19" s="58" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C89" s="169" t="s">
@@ -21568,23 +21568,23 @@
       <c r="E101" s="203"/>
       <c r="F101" s="203"/>
       <c r="G101" s="203"/>
-      <c r="I101" s="322" t="s">
+      <c r="I101" s="323" t="s">
         <v>353</v>
       </c>
-      <c r="J101" s="323"/>
+      <c r="J101" s="324"/>
       <c r="L101" s="203"/>
     </row>
     <row r="102" spans="3:16" s="58" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C102" s="169" t="s">
         <v>93</v>
       </c>
-      <c r="D102" s="319" t="s">
+      <c r="D102" s="320" t="s">
         <v>356</v>
       </c>
-      <c r="E102" s="320"/>
-      <c r="F102" s="320"/>
-      <c r="G102" s="320"/>
-      <c r="H102" s="321"/>
+      <c r="E102" s="321"/>
+      <c r="F102" s="321"/>
+      <c r="G102" s="321"/>
+      <c r="H102" s="322"/>
       <c r="I102" s="170" t="s">
         <v>358</v>
       </c>
@@ -21602,13 +21602,13 @@
       <c r="C103" s="27">
         <v>20</v>
       </c>
-      <c r="D103" s="324" t="s">
+      <c r="D103" s="325" t="s">
         <v>459</v>
       </c>
-      <c r="E103" s="325"/>
-      <c r="F103" s="325"/>
-      <c r="G103" s="325"/>
-      <c r="H103" s="326"/>
+      <c r="E103" s="326"/>
+      <c r="F103" s="326"/>
+      <c r="G103" s="326"/>
+      <c r="H103" s="327"/>
       <c r="I103" s="131" t="s">
         <v>355</v>
       </c>
@@ -21650,22 +21650,22 @@
       <c r="E108" s="203"/>
       <c r="F108" s="203"/>
       <c r="G108" s="203"/>
-      <c r="I108" s="322" t="s">
+      <c r="I108" s="323" t="s">
         <v>353</v>
       </c>
-      <c r="J108" s="323"/>
+      <c r="J108" s="324"/>
     </row>
     <row r="109" spans="3:16" s="58" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C109" s="169" t="s">
         <v>93</v>
       </c>
-      <c r="D109" s="319" t="s">
+      <c r="D109" s="320" t="s">
         <v>356</v>
       </c>
-      <c r="E109" s="320"/>
-      <c r="F109" s="320"/>
-      <c r="G109" s="320"/>
-      <c r="H109" s="321"/>
+      <c r="E109" s="321"/>
+      <c r="F109" s="321"/>
+      <c r="G109" s="321"/>
+      <c r="H109" s="322"/>
       <c r="I109" s="170" t="s">
         <v>358</v>
       </c>
@@ -21683,13 +21683,13 @@
       <c r="C110" s="27">
         <v>21</v>
       </c>
-      <c r="D110" s="324" t="s">
+      <c r="D110" s="325" t="s">
         <v>452</v>
       </c>
-      <c r="E110" s="325"/>
-      <c r="F110" s="325"/>
-      <c r="G110" s="325"/>
-      <c r="H110" s="326"/>
+      <c r="E110" s="326"/>
+      <c r="F110" s="326"/>
+      <c r="G110" s="326"/>
+      <c r="H110" s="327"/>
       <c r="I110" s="131" t="s">
         <v>355</v>
       </c>

--- a/docs/A製品開発/A製品 機能仕様書.xlsx
+++ b/docs/A製品開発/A製品 機能仕様書.xlsx
@@ -141,10 +141,10 @@
   </definedNames>
   <calcPr calcId="162913" calcOnSave="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="yasui - 個人用ビュー" guid="{3EF97D6C-5CE3-40A1-AE34-333C5813F93B}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1280" windowHeight="742" tabRatio="832" activeSheetId="17" showComments="commIndAndComment"/>
+    <customWorkbookView name="kuriyama - 個人用ビュー" guid="{D8827C90-67CE-482F-BDC6-70F9BED566B6}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1016" windowHeight="539" tabRatio="951" activeSheetId="1" showFormulaBar="0"/>
+    <customWorkbookView name="山下 - 個人用ビュー" guid="{B42E1987-6453-408F-8B3D-97D5374F1132}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1184" windowHeight="729" tabRatio="786" activeSheetId="2"/>
     <customWorkbookView name="haya_taku - 個人用ビュー" guid="{150DCB42-A351-4287-B51A-F97A9C29C547}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1144" windowHeight="835" tabRatio="832" activeSheetId="2" showComments="commIndAndComment"/>
-    <customWorkbookView name="山下 - 個人用ビュー" guid="{B42E1987-6453-408F-8B3D-97D5374F1132}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1184" windowHeight="729" tabRatio="786" activeSheetId="2"/>
-    <customWorkbookView name="kuriyama - 個人用ビュー" guid="{D8827C90-67CE-482F-BDC6-70F9BED566B6}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1016" windowHeight="539" tabRatio="951" activeSheetId="1" showFormulaBar="0"/>
-    <customWorkbookView name="yasui - 個人用ビュー" guid="{3EF97D6C-5CE3-40A1-AE34-333C5813F93B}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1280" windowHeight="742" tabRatio="832" activeSheetId="17" showComments="commIndAndComment"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -14321,22 +14321,22 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{150DCB42-A351-4287-B51A-F97A9C29C547}" showPageBreaks="1" showGridLines="0" fitToPage="1" printArea="1">
-      <selection activeCell="D21" sqref="D21"/>
+    <customSheetView guid="{3EF97D6C-5CE3-40A1-AE34-333C5813F93B}" showPageBreaks="1" showGridLines="0" fitToPage="1" printArea="1">
       <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{D8827C90-67CE-482F-BDC6-70F9BED566B6}" showGridLines="0" fitToPage="1" topLeftCell="A4">
+      <selection activeCell="D22" sqref="D22"/>
+      <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
     <customSheetView guid="{B42E1987-6453-408F-8B3D-97D5374F1132}" showGridLines="0" fitToPage="1">
       <selection activeCell="D25" sqref="D25"/>
       <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-    </customSheetView>
-    <customSheetView guid="{D8827C90-67CE-482F-BDC6-70F9BED566B6}" showGridLines="0" fitToPage="1" topLeftCell="A4">
-      <selection activeCell="D22" sqref="D22"/>
-      <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{3EF97D6C-5CE3-40A1-AE34-333C5813F93B}" showPageBreaks="1" showGridLines="0" fitToPage="1" printArea="1">
+    <customSheetView guid="{150DCB42-A351-4287-B51A-F97A9C29C547}" showPageBreaks="1" showGridLines="0" fitToPage="1" printArea="1">
+      <selection activeCell="D21" sqref="D21"/>
       <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId4"/>
     </customSheetView>
@@ -14470,29 +14470,29 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{3EF97D6C-5CE3-40A1-AE34-333C5813F93B}" scale="85" showPageBreaks="1" showGridLines="0" fitToPage="1">
+      <pane ySplit="4" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+      <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+      <pageSetup paperSize="9" scale="59" fitToHeight="10" orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{D8827C90-67CE-482F-BDC6-70F9BED566B6}" scale="85" showGridLines="0" fitToPage="1" showAutoFilter="1">
+      <selection activeCell="F2" sqref="F2"/>
+      <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+      <pageSetup paperSize="9" scale="91" orientation="portrait" r:id="rId2"/>
+      <autoFilter ref="C4:G10"/>
+    </customSheetView>
+    <customSheetView guid="{B42E1987-6453-408F-8B3D-97D5374F1132}" scale="85" showGridLines="0" fitToPage="1" showAutoFilter="1">
+      <selection activeCell="F11" sqref="F11"/>
+      <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+      <pageSetup paperSize="9" scale="91" orientation="portrait" r:id="rId3"/>
+      <autoFilter ref="C4:G10"/>
+    </customSheetView>
     <customSheetView guid="{150DCB42-A351-4287-B51A-F97A9C29C547}" scale="85" showGridLines="0" fitToPage="1">
       <pane ySplit="4" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F112" sqref="F112"/>
       <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-      <pageSetup paperSize="9" scale="61" orientation="portrait" r:id="rId1"/>
-    </customSheetView>
-    <customSheetView guid="{B42E1987-6453-408F-8B3D-97D5374F1132}" scale="85" showGridLines="0" fitToPage="1" showAutoFilter="1">
-      <selection activeCell="F11" sqref="F11"/>
-      <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-      <pageSetup paperSize="9" scale="91" orientation="portrait" r:id="rId2"/>
-      <autoFilter ref="C4:G10"/>
-    </customSheetView>
-    <customSheetView guid="{D8827C90-67CE-482F-BDC6-70F9BED566B6}" scale="85" showGridLines="0" fitToPage="1" showAutoFilter="1">
-      <selection activeCell="F2" sqref="F2"/>
-      <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-      <pageSetup paperSize="9" scale="91" orientation="portrait" r:id="rId3"/>
-      <autoFilter ref="C4:G10"/>
-    </customSheetView>
-    <customSheetView guid="{3EF97D6C-5CE3-40A1-AE34-333C5813F93B}" scale="85" showPageBreaks="1" showGridLines="0" fitToPage="1">
-      <pane ySplit="4" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
-      <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-      <pageSetup paperSize="9" scale="59" fitToHeight="10" orientation="portrait" r:id="rId4"/>
+      <pageSetup paperSize="9" scale="61" orientation="portrait" r:id="rId4"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="6"/>
@@ -14681,20 +14681,20 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{150DCB42-A351-4287-B51A-F97A9C29C547}" scale="85" showGridLines="0" fitToPage="1">
-      <selection activeCell="D17" sqref="D17"/>
+    <customSheetView guid="{3EF97D6C-5CE3-40A1-AE34-333C5813F93B}" scale="85" showGridLines="0" fitToPage="1">
       <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="9" scale="70" orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{D8827C90-67CE-482F-BDC6-70F9BED566B6}" showGridLines="0">
+      <selection activeCell="D14" sqref="D14"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{B42E1987-6453-408F-8B3D-97D5374F1132}" showGridLines="0">
       <selection activeCell="D14" sqref="D14"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{D8827C90-67CE-482F-BDC6-70F9BED566B6}" showGridLines="0">
-      <selection activeCell="D14" sqref="D14"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{3EF97D6C-5CE3-40A1-AE34-333C5813F93B}" scale="85" showGridLines="0" fitToPage="1">
+    <customSheetView guid="{150DCB42-A351-4287-B51A-F97A9C29C547}" scale="85" showGridLines="0" fitToPage="1">
+      <selection activeCell="D17" sqref="D17"/>
       <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="9" scale="70" orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -14919,12 +14919,12 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{150DCB42-A351-4287-B51A-F97A9C29C547}" scale="85" showGridLines="0" topLeftCell="A22">
-      <selection activeCell="B28" sqref="B28"/>
+    <customSheetView guid="{3EF97D6C-5CE3-40A1-AE34-333C5813F93B}" scale="85" showGridLines="0">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{3EF97D6C-5CE3-40A1-AE34-333C5813F93B}" scale="85" showGridLines="0">
+    <customSheetView guid="{150DCB42-A351-4287-B51A-F97A9C29C547}" scale="85" showGridLines="0" topLeftCell="A22">
+      <selection activeCell="B28" sqref="B28"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -16988,11 +16988,11 @@
     <row r="151" spans="4:14" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{150DCB42-A351-4287-B51A-F97A9C29C547}" scale="70" showGridLines="0">
+    <customSheetView guid="{3EF97D6C-5CE3-40A1-AE34-333C5813F93B}" scale="70" showGridLines="0">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{3EF97D6C-5CE3-40A1-AE34-333C5813F93B}" scale="70" showGridLines="0">
+    <customSheetView guid="{150DCB42-A351-4287-B51A-F97A9C29C547}" scale="70" showGridLines="0">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -19948,13 +19948,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{150DCB42-A351-4287-B51A-F97A9C29C547}" scale="85" showGridLines="0">
+    <customSheetView guid="{3EF97D6C-5CE3-40A1-AE34-333C5813F93B}" scale="85" showGridLines="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{3EF97D6C-5CE3-40A1-AE34-333C5813F93B}" scale="85" showGridLines="0">
+    <customSheetView guid="{150DCB42-A351-4287-B51A-F97A9C29C547}" scale="85" showGridLines="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/A製品開発/A製品 機能仕様書.xlsx
+++ b/docs/A製品開発/A製品 機能仕様書.xlsx
@@ -141,10 +141,10 @@
   </definedNames>
   <calcPr calcId="162913" calcOnSave="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="haya_taku - 個人用ビュー" guid="{150DCB42-A351-4287-B51A-F97A9C29C547}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1144" windowHeight="835" tabRatio="832" activeSheetId="2" showComments="commIndAndComment"/>
+    <customWorkbookView name="山下 - 個人用ビュー" guid="{B42E1987-6453-408F-8B3D-97D5374F1132}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1184" windowHeight="729" tabRatio="786" activeSheetId="2"/>
+    <customWorkbookView name="kuriyama - 個人用ビュー" guid="{D8827C90-67CE-482F-BDC6-70F9BED566B6}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1016" windowHeight="539" tabRatio="951" activeSheetId="1" showFormulaBar="0"/>
     <customWorkbookView name="yasui - 個人用ビュー" guid="{3EF97D6C-5CE3-40A1-AE34-333C5813F93B}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1280" windowHeight="742" tabRatio="832" activeSheetId="17" showComments="commIndAndComment"/>
-    <customWorkbookView name="kuriyama - 個人用ビュー" guid="{D8827C90-67CE-482F-BDC6-70F9BED566B6}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1016" windowHeight="539" tabRatio="951" activeSheetId="1" showFormulaBar="0"/>
-    <customWorkbookView name="山下 - 個人用ビュー" guid="{B42E1987-6453-408F-8B3D-97D5374F1132}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1184" windowHeight="729" tabRatio="786" activeSheetId="2"/>
-    <customWorkbookView name="haya_taku - 個人用ビュー" guid="{150DCB42-A351-4287-B51A-F97A9C29C547}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1144" windowHeight="835" tabRatio="832" activeSheetId="2" showComments="commIndAndComment"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -14321,22 +14321,22 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{3EF97D6C-5CE3-40A1-AE34-333C5813F93B}" showPageBreaks="1" showGridLines="0" fitToPage="1" printArea="1">
+    <customSheetView guid="{150DCB42-A351-4287-B51A-F97A9C29C547}" showPageBreaks="1" showGridLines="0" fitToPage="1" printArea="1">
+      <selection activeCell="D21" sqref="D21"/>
       <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{B42E1987-6453-408F-8B3D-97D5374F1132}" showGridLines="0" fitToPage="1">
+      <selection activeCell="D25" sqref="D25"/>
+      <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
     <customSheetView guid="{D8827C90-67CE-482F-BDC6-70F9BED566B6}" showGridLines="0" fitToPage="1" topLeftCell="A4">
       <selection activeCell="D22" sqref="D22"/>
       <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-    </customSheetView>
-    <customSheetView guid="{B42E1987-6453-408F-8B3D-97D5374F1132}" showGridLines="0" fitToPage="1">
-      <selection activeCell="D25" sqref="D25"/>
-      <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{150DCB42-A351-4287-B51A-F97A9C29C547}" showPageBreaks="1" showGridLines="0" fitToPage="1" printArea="1">
-      <selection activeCell="D21" sqref="D21"/>
+    <customSheetView guid="{3EF97D6C-5CE3-40A1-AE34-333C5813F93B}" showPageBreaks="1" showGridLines="0" fitToPage="1" printArea="1">
       <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId4"/>
     </customSheetView>
@@ -14355,7 +14355,7 @@
   <dimension ref="C2:G15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -14470,29 +14470,29 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{150DCB42-A351-4287-B51A-F97A9C29C547}" scale="85" showGridLines="0" fitToPage="1">
+      <pane ySplit="4" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F112" sqref="F112"/>
+      <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+      <pageSetup paperSize="9" scale="61" orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{B42E1987-6453-408F-8B3D-97D5374F1132}" scale="85" showGridLines="0" fitToPage="1" showAutoFilter="1">
+      <selection activeCell="F11" sqref="F11"/>
+      <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+      <pageSetup paperSize="9" scale="91" orientation="portrait" r:id="rId2"/>
+      <autoFilter ref="C4:G10"/>
+    </customSheetView>
+    <customSheetView guid="{D8827C90-67CE-482F-BDC6-70F9BED566B6}" scale="85" showGridLines="0" fitToPage="1" showAutoFilter="1">
+      <selection activeCell="F2" sqref="F2"/>
+      <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+      <pageSetup paperSize="9" scale="91" orientation="portrait" r:id="rId3"/>
+      <autoFilter ref="C4:G10"/>
+    </customSheetView>
     <customSheetView guid="{3EF97D6C-5CE3-40A1-AE34-333C5813F93B}" scale="85" showPageBreaks="1" showGridLines="0" fitToPage="1">
       <pane ySplit="4" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
       <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-      <pageSetup paperSize="9" scale="59" fitToHeight="10" orientation="portrait" r:id="rId1"/>
-    </customSheetView>
-    <customSheetView guid="{D8827C90-67CE-482F-BDC6-70F9BED566B6}" scale="85" showGridLines="0" fitToPage="1" showAutoFilter="1">
-      <selection activeCell="F2" sqref="F2"/>
-      <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-      <pageSetup paperSize="9" scale="91" orientation="portrait" r:id="rId2"/>
-      <autoFilter ref="C4:G10"/>
-    </customSheetView>
-    <customSheetView guid="{B42E1987-6453-408F-8B3D-97D5374F1132}" scale="85" showGridLines="0" fitToPage="1" showAutoFilter="1">
-      <selection activeCell="F11" sqref="F11"/>
-      <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-      <pageSetup paperSize="9" scale="91" orientation="portrait" r:id="rId3"/>
-      <autoFilter ref="C4:G10"/>
-    </customSheetView>
-    <customSheetView guid="{150DCB42-A351-4287-B51A-F97A9C29C547}" scale="85" showGridLines="0" fitToPage="1">
-      <pane ySplit="4" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F112" sqref="F112"/>
-      <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-      <pageSetup paperSize="9" scale="61" orientation="portrait" r:id="rId4"/>
+      <pageSetup paperSize="9" scale="59" fitToHeight="10" orientation="portrait" r:id="rId4"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="6"/>
@@ -14681,20 +14681,20 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{3EF97D6C-5CE3-40A1-AE34-333C5813F93B}" scale="85" showGridLines="0" fitToPage="1">
+    <customSheetView guid="{150DCB42-A351-4287-B51A-F97A9C29C547}" scale="85" showGridLines="0" fitToPage="1">
+      <selection activeCell="D17" sqref="D17"/>
       <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="9" scale="70" orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{B42E1987-6453-408F-8B3D-97D5374F1132}" showGridLines="0">
+      <selection activeCell="D14" sqref="D14"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{D8827C90-67CE-482F-BDC6-70F9BED566B6}" showGridLines="0">
       <selection activeCell="D14" sqref="D14"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{B42E1987-6453-408F-8B3D-97D5374F1132}" showGridLines="0">
-      <selection activeCell="D14" sqref="D14"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{150DCB42-A351-4287-B51A-F97A9C29C547}" scale="85" showGridLines="0" fitToPage="1">
-      <selection activeCell="D17" sqref="D17"/>
+    <customSheetView guid="{3EF97D6C-5CE3-40A1-AE34-333C5813F93B}" scale="85" showGridLines="0" fitToPage="1">
       <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="9" scale="70" orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -14919,12 +14919,12 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{3EF97D6C-5CE3-40A1-AE34-333C5813F93B}" scale="85" showGridLines="0">
+    <customSheetView guid="{150DCB42-A351-4287-B51A-F97A9C29C547}" scale="85" showGridLines="0" topLeftCell="A22">
+      <selection activeCell="B28" sqref="B28"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{150DCB42-A351-4287-B51A-F97A9C29C547}" scale="85" showGridLines="0" topLeftCell="A22">
-      <selection activeCell="B28" sqref="B28"/>
+    <customSheetView guid="{3EF97D6C-5CE3-40A1-AE34-333C5813F93B}" scale="85" showGridLines="0">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -16988,11 +16988,11 @@
     <row r="151" spans="4:14" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{3EF97D6C-5CE3-40A1-AE34-333C5813F93B}" scale="70" showGridLines="0">
+    <customSheetView guid="{150DCB42-A351-4287-B51A-F97A9C29C547}" scale="70" showGridLines="0">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{150DCB42-A351-4287-B51A-F97A9C29C547}" scale="70" showGridLines="0">
+    <customSheetView guid="{3EF97D6C-5CE3-40A1-AE34-333C5813F93B}" scale="70" showGridLines="0">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -19948,13 +19948,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{3EF97D6C-5CE3-40A1-AE34-333C5813F93B}" scale="85" showGridLines="0">
+    <customSheetView guid="{150DCB42-A351-4287-B51A-F97A9C29C547}" scale="85" showGridLines="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{150DCB42-A351-4287-B51A-F97A9C29C547}" scale="85" showGridLines="0">
+    <customSheetView guid="{3EF97D6C-5CE3-40A1-AE34-333C5813F93B}" scale="85" showGridLines="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/A製品開発/A製品 機能仕様書.xlsx
+++ b/docs/A製品開発/A製品 機能仕様書.xlsx
@@ -14355,7 +14355,7 @@
   <dimension ref="C2:G15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>

--- a/docs/A製品開発/A製品 機能仕様書.xlsx
+++ b/docs/A製品開発/A製品 機能仕様書.xlsx
@@ -14355,7 +14355,7 @@
   <dimension ref="C2:G15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>

--- a/docs/A製品開発/A製品 機能仕様書.xlsx
+++ b/docs/A製品開発/A製品 機能仕様書.xlsx
@@ -14355,7 +14355,7 @@
   <dimension ref="C2:G15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>

--- a/docs/A製品開発/A製品 機能仕様書.xlsx
+++ b/docs/A製品開発/A製品 機能仕様書.xlsx
@@ -14355,7 +14355,7 @@
   <dimension ref="C2:G15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>

--- a/docs/A製品開発/A製品 機能仕様書.xlsx
+++ b/docs/A製品開発/A製品 機能仕様書.xlsx
@@ -14355,7 +14355,7 @@
   <dimension ref="C2:G15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
